--- a/MTP_TEST_SHEET/test_cases_all.xlsx
+++ b/MTP_TEST_SHEET/test_cases_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lollal\Documents\Katalon\Local_agent\active-testing\MTP_TEST_SHEET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F20213E3-3A7B-49D0-BE51-912F8A40F09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001D4407-313C-42FC-9249-07DBB80CF190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4CA04EDA-5F88-F44F-AED6-BB3F5A70B725}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="263">
   <si>
     <t>suffixUrl</t>
   </si>
@@ -1260,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D0294-7B17-C346-9BB8-48947A2F0825}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121:XFD130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1287,17 +1287,17 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1306,10 +1306,10 @@
         <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1320,10 +1320,10 @@
         <v>262</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1334,10 +1334,10 @@
         <v>262</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1348,10 +1348,10 @@
         <v>262</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1362,10 +1362,10 @@
         <v>262</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1376,10 +1376,10 @@
         <v>262</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1390,10 +1390,10 @@
         <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1404,38 +1404,38 @@
         <v>262</v>
       </c>
       <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -1446,10 +1446,10 @@
         <v>262</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -1460,10 +1460,10 @@
         <v>262</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -1474,10 +1474,10 @@
         <v>262</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -1488,10 +1488,10 @@
         <v>262</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -1502,10 +1502,10 @@
         <v>262</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -1516,10 +1516,10 @@
         <v>262</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -1530,10 +1530,10 @@
         <v>262</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -1544,10 +1544,10 @@
         <v>262</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1558,10 +1558,10 @@
         <v>262</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -1572,13 +1572,13 @@
         <v>262</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="D22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1586,10 +1586,10 @@
         <v>262</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="4">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>262</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
@@ -1614,13 +1614,13 @@
         <v>262</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1628,10 +1628,10 @@
         <v>262</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -1642,13 +1642,13 @@
         <v>262</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1656,10 +1656,10 @@
         <v>262</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="4">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>262</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
@@ -1684,26 +1684,26 @@
         <v>262</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31">
+      <c r="D31" s="4">
         <v>0</v>
       </c>
     </row>
@@ -1712,10 +1712,10 @@
         <v>262</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1726,10 +1726,10 @@
         <v>262</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -1740,10 +1740,10 @@
         <v>262</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>262</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>262</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
@@ -1782,10 +1782,10 @@
         <v>262</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1796,10 +1796,10 @@
         <v>262</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -1810,10 +1810,13 @@
         <v>262</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
@@ -1821,13 +1824,10 @@
         <v>262</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
@@ -1835,10 +1835,10 @@
         <v>262</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -1849,10 +1849,10 @@
         <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -1863,10 +1863,10 @@
         <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -1877,10 +1877,10 @@
         <v>262</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -1891,10 +1891,10 @@
         <v>262</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -1905,10 +1905,10 @@
         <v>262</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1919,10 +1919,10 @@
         <v>262</v>
       </c>
       <c r="B47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1933,10 +1933,10 @@
         <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1947,10 +1947,10 @@
         <v>262</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1961,26 +1961,26 @@
         <v>262</v>
       </c>
       <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B51" t="s">
         <v>99</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" t="s">
         <v>100</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D51" s="6">
+      <c r="D51">
         <v>1</v>
       </c>
     </row>
@@ -1989,10 +1989,10 @@
         <v>262</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D52" s="6">
         <v>1</v>
@@ -2003,10 +2003,10 @@
         <v>262</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
@@ -2017,10 +2017,10 @@
         <v>262</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D54" s="6">
         <v>1</v>
@@ -2031,10 +2031,10 @@
         <v>262</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D55" s="6">
         <v>1</v>
@@ -2045,10 +2045,10 @@
         <v>262</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D56" s="6">
         <v>1</v>
@@ -2059,10 +2059,10 @@
         <v>262</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D57" s="6">
         <v>1</v>
@@ -2073,10 +2073,10 @@
         <v>262</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" s="6">
         <v>1</v>
@@ -2087,10 +2087,10 @@
         <v>262</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D59" s="6">
         <v>1</v>
@@ -2101,26 +2101,26 @@
         <v>262</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="D60" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="8">
+      <c r="D61" s="6">
         <v>1</v>
       </c>
     </row>
@@ -2129,10 +2129,10 @@
         <v>262</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D62" s="8">
         <v>1</v>
@@ -2143,10 +2143,10 @@
         <v>262</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D63" s="8">
         <v>1</v>
@@ -2157,10 +2157,10 @@
         <v>262</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D64" s="8">
         <v>1</v>
@@ -2171,10 +2171,10 @@
         <v>262</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D65" s="8">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         <v>262</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="8">
         <v>1</v>
@@ -2199,10 +2199,10 @@
         <v>262</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D67" s="8">
         <v>1</v>
@@ -2213,10 +2213,10 @@
         <v>262</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D68" s="8">
         <v>1</v>
@@ -2227,10 +2227,10 @@
         <v>262</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D69" s="8">
         <v>1</v>
@@ -2241,26 +2241,26 @@
         <v>262</v>
       </c>
       <c r="B70" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="10">
+      <c r="D71" s="8">
         <v>1</v>
       </c>
     </row>
@@ -2269,10 +2269,10 @@
         <v>262</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D72" s="10">
         <v>1</v>
@@ -2283,10 +2283,10 @@
         <v>262</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D73" s="10">
         <v>1</v>
@@ -2297,10 +2297,10 @@
         <v>262</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D74" s="10">
         <v>1</v>
@@ -2311,10 +2311,10 @@
         <v>262</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D75" s="10">
         <v>1</v>
@@ -2325,10 +2325,10 @@
         <v>262</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D76" s="10">
         <v>1</v>
@@ -2339,10 +2339,10 @@
         <v>262</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D77" s="10">
         <v>1</v>
@@ -2353,10 +2353,10 @@
         <v>262</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D78" s="10">
         <v>1</v>
@@ -2367,10 +2367,10 @@
         <v>262</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D79" s="10">
         <v>1</v>
@@ -2381,26 +2381,26 @@
         <v>262</v>
       </c>
       <c r="B80" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D80" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="12">
+      <c r="D81" s="10">
         <v>1</v>
       </c>
     </row>
@@ -2409,13 +2409,13 @@
         <v>262</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="D82" s="12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2423,10 +2423,10 @@
         <v>262</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D83" s="12">
         <v>0</v>
@@ -2437,10 +2437,10 @@
         <v>262</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D84" s="12">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>262</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D85" s="12">
         <v>0</v>
@@ -2465,10 +2465,10 @@
         <v>262</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D86" s="12">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>262</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D87" s="12">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>262</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D88" s="12">
         <v>0</v>
@@ -2507,10 +2507,10 @@
         <v>262</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D89" s="12">
         <v>0</v>
@@ -2521,26 +2521,26 @@
         <v>262</v>
       </c>
       <c r="B90" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B91" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="D90" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B91" t="s">
-        <v>173</v>
-      </c>
-      <c r="C91" t="s">
-        <v>193</v>
-      </c>
-      <c r="D91">
+      <c r="D91" s="12">
         <v>0</v>
       </c>
     </row>
@@ -2549,10 +2549,10 @@
         <v>262</v>
       </c>
       <c r="B92" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2563,10 +2563,10 @@
         <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2577,10 +2577,10 @@
         <v>262</v>
       </c>
       <c r="B94" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -2591,10 +2591,10 @@
         <v>262</v>
       </c>
       <c r="B95" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C95" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>262</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2619,10 +2619,10 @@
         <v>262</v>
       </c>
       <c r="B97" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2633,10 +2633,10 @@
         <v>262</v>
       </c>
       <c r="B98" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C98" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>262</v>
       </c>
       <c r="B99" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C99" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2661,26 +2661,26 @@
         <v>262</v>
       </c>
       <c r="B100" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" t="s">
         <v>182</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>202</v>
       </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B101" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D101" s="12">
+      <c r="D101">
         <v>0</v>
       </c>
     </row>
@@ -2689,10 +2689,13 @@
         <v>262</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2700,10 +2703,10 @@
         <v>262</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2711,10 +2714,10 @@
         <v>262</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2722,10 +2725,10 @@
         <v>262</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2733,10 +2736,10 @@
         <v>262</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2744,10 +2747,10 @@
         <v>262</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2755,10 +2758,10 @@
         <v>262</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2766,10 +2769,10 @@
         <v>262</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2777,10 +2780,10 @@
         <v>262</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2788,13 +2791,10 @@
         <v>262</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="D111" s="12">
-        <v>0</v>
+        <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2802,10 +2802,13 @@
         <v>262</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2813,54 +2816,54 @@
         <v>262</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B114" s="11" t="s">
-        <v>227</v>
+      <c r="B114" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="115" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B115" s="12" t="s">
-        <v>230</v>
+      <c r="B115" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B116" s="11" t="s">
-        <v>232</v>
+      <c r="B116" s="12" t="s">
+        <v>230</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B117" s="12" t="s">
-        <v>235</v>
+      <c r="B117" s="11" t="s">
+        <v>232</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2868,10 +2871,10 @@
         <v>262</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="119" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -2879,32 +2882,32 @@
         <v>262</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="120" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C121" s="12" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B121" t="s">
-        <v>242</v>
-      </c>
-      <c r="C121" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
@@ -2912,10 +2915,10 @@
         <v>262</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C122" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
@@ -2923,10 +2926,10 @@
         <v>262</v>
       </c>
       <c r="B123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C123" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.35">
@@ -2934,10 +2937,10 @@
         <v>262</v>
       </c>
       <c r="B124" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.35">
@@ -2945,10 +2948,10 @@
         <v>262</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.35">
@@ -2956,10 +2959,10 @@
         <v>262</v>
       </c>
       <c r="B126" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.35">
@@ -2967,10 +2970,10 @@
         <v>262</v>
       </c>
       <c r="B127" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.35">
@@ -2978,10 +2981,10 @@
         <v>262</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.35">
@@ -2989,10 +2992,10 @@
         <v>262</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C129" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.35">
@@ -3000,19 +3003,31 @@
         <v>262</v>
       </c>
       <c r="B130" t="s">
+        <v>258</v>
+      </c>
+      <c r="C130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A131" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B131" t="s">
         <v>261</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{87106391-5DAE-4337-A567-FCACF1B2D314}"/>
-    <hyperlink ref="A3:A130" r:id="rId2" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{CC880C09-FC07-4A75-B894-B7BAA94B2BD0}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{87106391-5DAE-4337-A567-FCACF1B2D314}"/>
+    <hyperlink ref="A4:A131" r:id="rId2" display="https://ccdi-opentargets-dev.bento-tools.org" xr:uid="{CC880C09-FC07-4A75-B894-B7BAA94B2BD0}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{3C5DA183-F26E-4BEB-A676-E8EF6FE0E308}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
 </worksheet>
 </file>